--- a/01_data/reporte_semanal/tabla_reporte_domingo.xlsx
+++ b/01_data/reporte_semanal/tabla_reporte_domingo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="42">
   <si>
     <t>PROGRAMA.1</t>
   </si>
@@ -52,25 +52,25 @@
     <t>Portugués Intermedio B1</t>
   </si>
   <si>
-    <t>05/01/2026</t>
-  </si>
-  <si>
-    <t>06/01/2026</t>
-  </si>
-  <si>
-    <t>07/01/2026</t>
-  </si>
-  <si>
-    <t>08/01/2026</t>
-  </si>
-  <si>
-    <t>09/01/2026</t>
-  </si>
-  <si>
-    <t>10/01/2026</t>
-  </si>
-  <si>
-    <t>11/01/2026</t>
+    <t>12/01/2026</t>
+  </si>
+  <si>
+    <t>13/01/2026</t>
+  </si>
+  <si>
+    <t>14/01/2026</t>
+  </si>
+  <si>
+    <t>15/01/2026</t>
+  </si>
+  <si>
+    <t>16/01/2026</t>
+  </si>
+  <si>
+    <t>17/01/2026</t>
+  </si>
+  <si>
+    <t>18/01/2026</t>
   </si>
   <si>
     <t>7:30 pm - 10:40 pm</t>
@@ -106,7 +106,7 @@
     <t>CAMILA PUGENS DE OLIVEIRA</t>
   </si>
   <si>
-    <t>GRIMALDO RAUL CAMACHO CUZQUEN</t>
+    <t>LAURA LISSET RIOS VALERO</t>
   </si>
   <si>
     <t>GIULIANA ROSA ROJAS VILCA</t>
@@ -115,13 +115,10 @@
     <t>DANIEL YASSER CARDENAS ENRIQUEZ</t>
   </si>
   <si>
+    <t>LOURDES ANGELICA PACHECO CERMEÑO</t>
+  </si>
+  <si>
     <t>LISI PORTOCARRERO ROJAS</t>
-  </si>
-  <si>
-    <t>LOURDES ANGELICA PACHECO CERMEÑO</t>
-  </si>
-  <si>
-    <t>LAURA LISSET RIOS VALERO</t>
   </si>
   <si>
     <t>GEORGE HAROLD NIEVES GUERRA</t>
@@ -500,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,7 +540,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>225639</v>
@@ -561,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -572,7 +569,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>225643</v>
@@ -590,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -601,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>225643</v>
@@ -619,7 +616,7 @@
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -630,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>225643</v>
@@ -648,7 +645,7 @@
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -659,7 +656,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>225639</v>
@@ -677,7 +674,7 @@
         <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -688,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>225639</v>
@@ -706,7 +703,7 @@
         <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -717,7 +714,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>225639</v>
@@ -735,7 +732,7 @@
         <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -746,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>225643</v>
@@ -775,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>225639</v>
@@ -793,7 +790,7 @@
         <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -804,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>225682</v>
@@ -822,7 +819,7 @@
         <v>31</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -833,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <v>225639</v>
@@ -851,7 +848,7 @@
         <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -862,10 +859,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>225639</v>
+        <v>225643</v>
       </c>
       <c r="E13">
         <v>1005</v>
@@ -880,7 +877,7 @@
         <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -891,10 +888,10 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>225643</v>
+        <v>225639</v>
       </c>
       <c r="E14">
         <v>1005</v>
@@ -909,7 +906,7 @@
         <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -920,13 +917,13 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>225639</v>
+        <v>225643</v>
       </c>
       <c r="E15">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -935,10 +932,10 @@
         <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -949,7 +946,7 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D16">
         <v>225639</v>
@@ -967,7 +964,7 @@
         <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -978,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>225643</v>
@@ -996,7 +993,7 @@
         <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1007,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>225639</v>
@@ -1025,7 +1022,7 @@
         <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1036,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>225639</v>
@@ -1054,7 +1051,7 @@
         <v>26</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1065,13 +1062,13 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>225643</v>
+        <v>225639</v>
       </c>
       <c r="E20">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -1080,10 +1077,10 @@
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1094,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D21">
         <v>225639</v>
@@ -1112,7 +1109,7 @@
         <v>30</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1123,13 +1120,13 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>225639</v>
+        <v>225643</v>
       </c>
       <c r="E22">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -1138,10 +1135,10 @@
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1152,13 +1149,13 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D23">
         <v>225643</v>
       </c>
       <c r="E23">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -1167,10 +1164,10 @@
         <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1181,13 +1178,13 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D24">
-        <v>225643</v>
+        <v>225639</v>
       </c>
       <c r="E24">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -1196,7 +1193,7 @@
         <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I24" t="s">
         <v>40</v>
@@ -1210,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D25">
         <v>225682</v>
@@ -1228,7 +1225,7 @@
         <v>31</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1239,13 +1236,13 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D26">
         <v>225643</v>
       </c>
       <c r="E26">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
@@ -1254,10 +1251,10 @@
         <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1268,10 +1265,10 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>225639</v>
+        <v>225643</v>
       </c>
       <c r="E27">
         <v>1005</v>
@@ -1286,24 +1283,24 @@
         <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D28">
-        <v>225682</v>
+        <v>225639</v>
       </c>
       <c r="E28">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="F28" t="s">
         <v>15</v>
@@ -1312,10 +1309,10 @@
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1326,25 +1323,25 @@
         <v>11</v>
       </c>
       <c r="C29">
+        <v>41</v>
+      </c>
+      <c r="D29">
+        <v>225639</v>
+      </c>
+      <c r="E29">
+        <v>1008</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s">
         <v>28</v>
       </c>
-      <c r="D29">
-        <v>225643</v>
-      </c>
-      <c r="E29">
-        <v>1006</v>
-      </c>
-      <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" t="s">
-        <v>29</v>
-      </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1355,13 +1352,13 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D30">
         <v>225643</v>
       </c>
       <c r="E30">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
@@ -1370,10 +1367,10 @@
         <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1384,13 +1381,13 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D31">
         <v>225643</v>
       </c>
       <c r="E31">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
@@ -1399,24 +1396,24 @@
         <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>225682</v>
+        <v>225643</v>
       </c>
       <c r="E32">
         <v>1002</v>
@@ -1428,27 +1425,27 @@
         <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D33">
-        <v>225639</v>
+        <v>225682</v>
       </c>
       <c r="E33">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
@@ -1457,10 +1454,10 @@
         <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1471,13 +1468,13 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D34">
         <v>225639</v>
       </c>
       <c r="E34">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
@@ -1486,10 +1483,10 @@
         <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1500,13 +1497,13 @@
         <v>11</v>
       </c>
       <c r="C35">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D35">
         <v>225639</v>
       </c>
       <c r="E35">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
@@ -1515,10 +1512,10 @@
         <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1529,13 +1526,13 @@
         <v>11</v>
       </c>
       <c r="C36">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D36">
         <v>225639</v>
       </c>
       <c r="E36">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -1544,10 +1541,10 @@
         <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1558,13 +1555,13 @@
         <v>11</v>
       </c>
       <c r="C37">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D37">
         <v>225639</v>
       </c>
       <c r="E37">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
@@ -1573,10 +1570,10 @@
         <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1587,13 +1584,13 @@
         <v>11</v>
       </c>
       <c r="C38">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D38">
         <v>225639</v>
       </c>
       <c r="E38">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
@@ -1602,10 +1599,10 @@
         <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1616,13 +1613,13 @@
         <v>11</v>
       </c>
       <c r="C39">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D39">
-        <v>225643</v>
+        <v>225639</v>
       </c>
       <c r="E39">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
@@ -1631,10 +1628,10 @@
         <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1645,25 +1642,25 @@
         <v>11</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D40">
         <v>225643</v>
       </c>
       <c r="E40">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1674,25 +1671,25 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D41">
         <v>225643</v>
       </c>
       <c r="E41">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1703,25 +1700,25 @@
         <v>11</v>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>225639</v>
+        <v>225643</v>
       </c>
       <c r="E42">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1732,13 +1729,13 @@
         <v>11</v>
       </c>
       <c r="C43">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D43">
         <v>225639</v>
       </c>
       <c r="E43">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -1747,10 +1744,10 @@
         <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1761,13 +1758,13 @@
         <v>11</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D44">
         <v>225639</v>
       </c>
       <c r="E44">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -1776,10 +1773,10 @@
         <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1790,25 +1787,25 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D45">
         <v>225639</v>
       </c>
       <c r="E45">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1819,25 +1816,25 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D46">
         <v>225639</v>
       </c>
       <c r="E46">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1848,13 +1845,13 @@
         <v>11</v>
       </c>
       <c r="C47">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D47">
-        <v>225643</v>
+        <v>225639</v>
       </c>
       <c r="E47">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="F47" t="s">
         <v>18</v>
@@ -1863,10 +1860,10 @@
         <v>21</v>
       </c>
       <c r="H47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1877,7 +1874,7 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D48">
         <v>225639</v>
@@ -1892,10 +1889,10 @@
         <v>21</v>
       </c>
       <c r="H48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1906,10 +1903,10 @@
         <v>11</v>
       </c>
       <c r="C49">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D49">
-        <v>225639</v>
+        <v>225643</v>
       </c>
       <c r="E49">
         <v>1007</v>
@@ -1921,10 +1918,39 @@
         <v>21</v>
       </c>
       <c r="H49" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>29</v>
+      </c>
+      <c r="D50">
+        <v>225639</v>
+      </c>
+      <c r="E50">
+        <v>1007</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
